--- a/Lecture 13 - Multiple regression/Examples/Educ_and_income.xlsx
+++ b/Lecture 13 - Multiple regression/Examples/Educ_and_income.xlsx
@@ -1,26 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Teaching\Statistics\Introductory_statistics\Lecture 13 - Multiple regression\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A868863-8A38-4350-B604-D619BA250E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23258580-BF81-423A-BC6F-756F293CF442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39635BB7-6A35-482C-AD06-26328292A2ED}"/>
+    <workbookView xWindow="-46188" yWindow="6684" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{39635BB7-6A35-482C-AD06-26328292A2ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Educ_and_income" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Educ_and_income" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>IQ</t>
   </si>
@@ -30,12 +46,90 @@
   <si>
     <t>income_monthly</t>
   </si>
+  <si>
+    <t>y = b_0 + b_1 Educ + e</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95,0%</t>
+  </si>
+  <si>
+    <t>Upper 95,0%</t>
+  </si>
+  <si>
+    <t>y = b_0 + b_1 Educ + b_2 IQ + e</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +260,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -467,6 +569,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -512,8 +634,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -890,21 +1021,513 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC99FECE-9146-49E4-AFAB-D8FA30898B16}">
-  <dimension ref="A1:C401"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FB1E24-5AC2-4E17-896A-D811E9726BD6}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A10" zoomScale="176" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.80796093287432824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.65280086905115475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.65192850942565517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.7807984079604067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5786.6095412853701</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5786.6095412853701</v>
+      </c>
+      <c r="E12" s="1">
+        <v>748.31623331637741</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.8574069322729995E-93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>398</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3077.6702347146224</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7.7328397857151314</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>399</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8864.2797759999921</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15.645336832567466</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.75510790514106618</v>
+      </c>
+      <c r="D17" s="1">
+        <v>20.71933921767733</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.2055752534568492E-65</v>
+      </c>
+      <c r="F17" s="1">
+        <v>14.160838242681596</v>
+      </c>
+      <c r="G17" s="1">
+        <v>17.129835422453336</v>
+      </c>
+      <c r="H17" s="1">
+        <v>14.160838242681596</v>
+      </c>
+      <c r="I17" s="1">
+        <v>17.129835422453336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.0338655815108995</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7.4349775872998458E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>27.355369369035806</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1.8574069322714138E-93</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.887698210344023</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2.180032952677776</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1.887698210344023</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2.180032952677776</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09EE38C-CAAA-429C-B3EB-6F8B45754DF5}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.97987557690383886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.96015614621263101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.95995542150841251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.94320727736470811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8511.0927086747161</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4255.546354337358</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4783.4478070398482</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.4849968702709519E-278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>397</v>
+      </c>
+      <c r="C13" s="1">
+        <v>353.18706732527693</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.88963996807374546</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>399</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8864.2797759999921</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5.3208215006153292</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.31686849391084454</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16.791891913723735</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.384166242561797E-48</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.6978715313226429</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5.9437714699080155</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.6978715313226429</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5.9437714699080155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.29214812985404054</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.2792008948860918E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>55.33946058712057</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9.896164483374368E-189</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.28176944564101009</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.30252681406707099</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.28176944564101009</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.30252681406707099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.1422361149250557</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4.2478182044001007E-2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3.3484510890254313</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8.9030727818280222E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5.8725817409124775E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.22574641244098662</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5.8725817409124775E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.22574641244098662</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC99FECE-9146-49E4-AFAB-D8FA30898B16}">
+  <dimension ref="A1:E401"/>
+  <sheetViews>
+    <sheetView topLeftCell="A387" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -914,8 +1537,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>117.44</v>
       </c>
@@ -925,8 +1551,11 @@
       <c r="C2">
         <v>43.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>91.21</v>
       </c>
@@ -937,7 +1566,7 @@
         <v>32.549999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>126.78</v>
       </c>
@@ -948,7 +1577,7 @@
         <v>43.26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>80.010000000000005</v>
       </c>
@@ -959,7 +1588,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>93.3</v>
       </c>
@@ -970,7 +1599,7 @@
         <v>34.81</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>108.54</v>
       </c>
@@ -981,7 +1610,7 @@
         <v>38.35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>56.65</v>
       </c>
@@ -992,7 +1621,7 @@
         <v>20.45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>86.96</v>
       </c>
@@ -1003,7 +1632,7 @@
         <v>31.64</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>93.07</v>
       </c>
@@ -1014,7 +1643,7 @@
         <v>34.86</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>91.67</v>
       </c>
@@ -1025,7 +1654,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>99.7</v>
       </c>
@@ -1036,7 +1665,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>97.74</v>
       </c>
@@ -1047,7 +1676,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>90.58</v>
       </c>
@@ -1058,7 +1687,7 @@
         <v>33.590000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>119.85</v>
       </c>
@@ -1069,7 +1698,7 @@
         <v>40.96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>77.180000000000007</v>
       </c>
@@ -1080,7 +1709,7 @@
         <v>29.01</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>93.44</v>
       </c>
@@ -1091,7 +1720,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>114.56</v>
       </c>
@@ -1102,7 +1731,7 @@
         <v>41.67</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>100.42</v>
       </c>
@@ -1113,7 +1742,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>98.71</v>
       </c>
@@ -1124,7 +1753,7 @@
         <v>36.58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>105.84</v>
       </c>
@@ -1135,7 +1764,7 @@
         <v>39.11</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>103.55</v>
       </c>
@@ -1146,7 +1775,7 @@
         <v>37.44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>97.83</v>
       </c>
@@ -1157,7 +1786,7 @@
         <v>35.840000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>110.83</v>
       </c>
@@ -1168,7 +1797,7 @@
         <v>39.17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>105.55</v>
       </c>
@@ -1179,7 +1808,7 @@
         <v>38.130000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>96.37</v>
       </c>
@@ -1190,7 +1819,7 @@
         <v>33.44</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>77.92</v>
       </c>
@@ -1201,7 +1830,7 @@
         <v>28.03</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>91.06</v>
       </c>
@@ -1212,7 +1841,7 @@
         <v>34.479999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>82.8</v>
       </c>
@@ -1223,7 +1852,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>62.88</v>
       </c>
@@ -1234,7 +1863,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>90.8</v>
       </c>
@@ -1245,7 +1874,7 @@
         <v>34.020000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>96.76</v>
       </c>
@@ -1256,7 +1885,7 @@
         <v>33.36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>123.85</v>
       </c>
@@ -1267,7 +1896,7 @@
         <v>43.72</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>123.34</v>
       </c>
@@ -1278,7 +1907,7 @@
         <v>42.52</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>116.63</v>
       </c>
@@ -1289,7 +1918,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>83.54</v>
       </c>
@@ -1300,7 +1929,7 @@
         <v>32.479999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>72.09</v>
       </c>
@@ -1311,7 +1940,7 @@
         <v>26.71</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>86.3</v>
       </c>
@@ -1322,7 +1951,7 @@
         <v>30.26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>118.68</v>
       </c>
@@ -1333,7 +1962,7 @@
         <v>42.01</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>101.32</v>
       </c>
@@ -1344,7 +1973,7 @@
         <v>37.43</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>106.35</v>
       </c>
@@ -1355,7 +1984,7 @@
         <v>38.130000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>87.72</v>
       </c>
@@ -1366,7 +1995,7 @@
         <v>33.22</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>76.86</v>
       </c>
@@ -1377,7 +2006,7 @@
         <v>29.77</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>108.34</v>
       </c>
@@ -1388,7 +2017,7 @@
         <v>40.659999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>94.46</v>
       </c>
@@ -1399,7 +2028,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>84.29</v>
       </c>
@@ -1410,7 +2039,7 @@
         <v>31.38</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>100.27</v>
       </c>
@@ -1421,7 +2050,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>113.23</v>
       </c>
@@ -1432,7 +2061,7 @@
         <v>38.869999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>113.23</v>
       </c>
@@ -1443,7 +2072,7 @@
         <v>40.31</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>115.39</v>
       </c>
@@ -1454,7 +2083,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>94.28</v>
       </c>
@@ -1465,7 +2094,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>116.49</v>
       </c>
@@ -1476,7 +2105,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>99.54</v>
       </c>
@@ -1487,7 +2116,7 @@
         <v>36.049999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>102.86</v>
       </c>
@@ -1498,7 +2127,7 @@
         <v>37.35</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>120.03</v>
       </c>
@@ -1509,7 +2138,7 @@
         <v>41.14</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>110.96</v>
       </c>
@@ -1520,7 +2149,7 @@
         <v>39.78</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>100.84</v>
       </c>
@@ -1531,7 +2160,7 @@
         <v>36.18</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>119.94</v>
       </c>
@@ -1542,7 +2171,7 @@
         <v>42.05</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>93.88</v>
       </c>
@@ -1553,7 +2182,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>87.73</v>
       </c>
@@ -1564,7 +2193,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>105.38</v>
       </c>
@@ -1575,7 +2204,7 @@
         <v>37.97</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>100.88</v>
       </c>
@@ -1586,7 +2215,7 @@
         <v>35.46</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>98.96</v>
       </c>
@@ -1597,7 +2226,7 @@
         <v>35.64</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>94.23</v>
       </c>
@@ -1608,7 +2237,7 @@
         <v>35.06</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>86.89</v>
       </c>
@@ -1619,7 +2248,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>117.94</v>
       </c>
@@ -1630,7 +2259,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>75.08</v>
       </c>
@@ -1641,7 +2270,7 @@
         <v>28.46</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>117.48</v>
       </c>
@@ -1652,7 +2281,7 @@
         <v>42.65</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>83.96</v>
       </c>
@@ -1663,7 +2292,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>113.63</v>
       </c>
@@ -1674,7 +2303,7 @@
         <v>41.55</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>80.239999999999995</v>
       </c>
@@ -1685,7 +2314,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>109.83</v>
       </c>
@@ -1696,7 +2325,7 @@
         <v>40.119999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>90.09</v>
       </c>
@@ -1707,7 +2336,7 @@
         <v>32.409999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>114.87</v>
       </c>
@@ -1718,7 +2347,7 @@
         <v>39.869999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>89.75</v>
       </c>
@@ -1729,7 +2358,7 @@
         <v>32.770000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>116.82</v>
       </c>
@@ -1740,7 +2369,7 @@
         <v>40.44</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>105.83</v>
       </c>
@@ -1751,7 +2380,7 @@
         <v>36.69</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>97.74</v>
       </c>
@@ -1762,7 +2391,7 @@
         <v>35.549999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>93.01</v>
       </c>
@@ -1773,7 +2402,7 @@
         <v>31.76</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79.59</v>
       </c>
@@ -1784,7 +2413,7 @@
         <v>31.27</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>99.56</v>
       </c>
@@ -1795,7 +2424,7 @@
         <v>36.25</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>96.39</v>
       </c>
@@ -1806,7 +2435,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>128.83000000000001</v>
       </c>
@@ -1817,7 +2446,7 @@
         <v>44.35</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>101.46</v>
       </c>
@@ -1828,7 +2457,7 @@
         <v>36.42</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>101.38</v>
       </c>
@@ -1839,7 +2468,7 @@
         <v>36.31</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>102.83</v>
       </c>
@@ -1850,7 +2479,7 @@
         <v>36.86</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>90.43</v>
       </c>
@@ -1861,7 +2490,7 @@
         <v>32.130000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>99.46</v>
       </c>
@@ -1872,7 +2501,7 @@
         <v>35.590000000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>101.68</v>
       </c>
@@ -1883,7 +2512,7 @@
         <v>37.65</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>118.16</v>
       </c>
@@ -1894,7 +2523,7 @@
         <v>40.76</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>121.61</v>
       </c>
@@ -1905,7 +2534,7 @@
         <v>43.32</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>133.13</v>
       </c>
@@ -1916,7 +2545,7 @@
         <v>47.25</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>70.48</v>
       </c>
@@ -1927,7 +2556,7 @@
         <v>28.27</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>108.38</v>
       </c>
@@ -1938,7 +2567,7 @@
         <v>37.840000000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>96.75</v>
       </c>
@@ -1949,7 +2578,7 @@
         <v>35.29</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>98.98</v>
       </c>
@@ -1960,7 +2589,7 @@
         <v>33.770000000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>103.99</v>
       </c>
@@ -1971,7 +2600,7 @@
         <v>37.19</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>119.29</v>
       </c>
@@ -1982,7 +2611,7 @@
         <v>42.11</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>116.52</v>
       </c>
@@ -1993,7 +2622,7 @@
         <v>40.54</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>91.07</v>
       </c>
@@ -2004,7 +2633,7 @@
         <v>33.22</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>102.33</v>
       </c>
@@ -2015,7 +2644,7 @@
         <v>36.32</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>108.22</v>
       </c>
@@ -2026,7 +2655,7 @@
         <v>37.93</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>96.62</v>
       </c>
@@ -2037,7 +2666,7 @@
         <v>34.630000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>118.26</v>
       </c>
@@ -2048,7 +2677,7 @@
         <v>39.79</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>110.51</v>
       </c>
@@ -2059,7 +2688,7 @@
         <v>38.11</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>113.68</v>
       </c>
@@ -2070,7 +2699,7 @@
         <v>40.11</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>101.64</v>
       </c>
@@ -2081,7 +2710,7 @@
         <v>37.51</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>98.35</v>
       </c>
@@ -2092,7 +2721,7 @@
         <v>36.840000000000003</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>93.48</v>
       </c>
@@ -2103,7 +2732,7 @@
         <v>35.090000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108.27</v>
       </c>
@@ -2114,7 +2743,7 @@
         <v>38.33</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>77.27</v>
       </c>
@@ -2125,7 +2754,7 @@
         <v>28.69</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112.7</v>
       </c>
@@ -2136,7 +2765,7 @@
         <v>39.68</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>125.84</v>
       </c>
@@ -2147,7 +2776,7 @@
         <v>42.52</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>85.74</v>
       </c>
@@ -2158,7 +2787,7 @@
         <v>30.89</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>76.739999999999995</v>
       </c>
@@ -2169,7 +2798,7 @@
         <v>28.38</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>91.1</v>
       </c>
@@ -2180,7 +2809,7 @@
         <v>31.54</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>86.04</v>
       </c>
@@ -2191,7 +2820,7 @@
         <v>31.04</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>78.010000000000005</v>
       </c>
@@ -2202,7 +2831,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>128.74</v>
       </c>
@@ -2213,7 +2842,7 @@
         <v>44.27</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>98.8</v>
       </c>
@@ -2224,7 +2853,7 @@
         <v>33.93</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>94.37</v>
       </c>
@@ -2235,7 +2864,7 @@
         <v>35.21</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>111.32</v>
       </c>
@@ -2246,7 +2875,7 @@
         <v>39.96</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>104.16</v>
       </c>
@@ -2257,7 +2886,7 @@
         <v>36.090000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>115.77</v>
       </c>
@@ -2268,7 +2897,7 @@
         <v>38.880000000000003</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124.34</v>
       </c>
@@ -2279,7 +2908,7 @@
         <v>46.02</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>112.18</v>
       </c>
@@ -2290,7 +2919,7 @@
         <v>40.32</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>105.49</v>
       </c>
@@ -2301,7 +2930,7 @@
         <v>37.049999999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>110.29</v>
       </c>
@@ -2312,7 +2941,7 @@
         <v>38.659999999999997</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>73.17</v>
       </c>
@@ -2323,7 +2952,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>89.78</v>
       </c>
@@ -2334,7 +2963,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>85.07</v>
       </c>
@@ -2345,7 +2974,7 @@
         <v>30.63</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>83.53</v>
       </c>
@@ -2356,7 +2985,7 @@
         <v>31.84</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>117.55</v>
       </c>
@@ -2367,7 +2996,7 @@
         <v>42.15</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>77.47</v>
       </c>
@@ -2378,7 +3007,7 @@
         <v>29.17</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>125.04</v>
       </c>
@@ -2389,7 +3018,7 @@
         <v>42.24</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>77.37</v>
       </c>
@@ -2400,7 +3029,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>91.2</v>
       </c>
@@ -2411,7 +3040,7 @@
         <v>34.31</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>90.01</v>
       </c>
@@ -2422,7 +3051,7 @@
         <v>34.729999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>104.43</v>
       </c>
@@ -2433,7 +3062,7 @@
         <v>37.590000000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>83.61</v>
       </c>
@@ -2444,7 +3073,7 @@
         <v>32.83</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>113.9</v>
       </c>
@@ -2455,7 +3084,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>95.29</v>
       </c>
@@ -2466,7 +3095,7 @@
         <v>35.33</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>94.73</v>
       </c>
@@ -2477,7 +3106,7 @@
         <v>33.86</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>104.35</v>
       </c>
@@ -2488,7 +3117,7 @@
         <v>37.78</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>120.98</v>
       </c>
@@ -2499,7 +3128,7 @@
         <v>41.88</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>96.31</v>
       </c>
@@ -2510,7 +3139,7 @@
         <v>32.909999999999997</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>101.24</v>
       </c>
@@ -2521,7 +3150,7 @@
         <v>34.79</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>103.24</v>
       </c>
@@ -2532,7 +3161,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>128.71</v>
       </c>
@@ -2543,7 +3172,7 @@
         <v>45.57</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>92.85</v>
       </c>
@@ -2554,7 +3183,7 @@
         <v>33.270000000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94.25</v>
       </c>
@@ -2565,7 +3194,7 @@
         <v>31.98</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>116.12</v>
       </c>
@@ -2576,7 +3205,7 @@
         <v>41.66</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>87.14</v>
       </c>
@@ -2587,7 +3216,7 @@
         <v>32.18</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>112.27</v>
       </c>
@@ -2598,7 +3227,7 @@
         <v>40.07</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>75.56</v>
       </c>
@@ -2609,7 +3238,7 @@
         <v>29.55</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>117.32</v>
       </c>
@@ -2620,7 +3249,7 @@
         <v>40.35</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>107.01</v>
       </c>
@@ -2631,7 +3260,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>94.49</v>
       </c>
@@ -2642,7 +3271,7 @@
         <v>34.81</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>97.82</v>
       </c>
@@ -2653,7 +3282,7 @@
         <v>34.78</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>104.25</v>
       </c>
@@ -2664,7 +3293,7 @@
         <v>38.06</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>123.28</v>
       </c>
@@ -2675,7 +3304,7 @@
         <v>43.87</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>115.56</v>
       </c>
@@ -2686,7 +3315,7 @@
         <v>41.56</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>104.96</v>
       </c>
@@ -2697,7 +3326,7 @@
         <v>37.74</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>119.92</v>
       </c>
@@ -2708,7 +3337,7 @@
         <v>42.76</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>105.01</v>
       </c>
@@ -2719,7 +3348,7 @@
         <v>37.26</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>114.54</v>
       </c>
@@ -2730,7 +3359,7 @@
         <v>40.049999999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>73.099999999999994</v>
       </c>
@@ -2741,7 +3370,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>94.65</v>
       </c>
@@ -2752,7 +3381,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>111</v>
       </c>
@@ -2763,7 +3392,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>123.27</v>
       </c>
@@ -2774,7 +3403,7 @@
         <v>44.02</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>104.88</v>
       </c>
@@ -2785,7 +3414,7 @@
         <v>38.24</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>107.2</v>
       </c>
@@ -2796,7 +3425,7 @@
         <v>37.29</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>107.71</v>
       </c>
@@ -2807,7 +3436,7 @@
         <v>37.83</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>108.84</v>
       </c>
@@ -2818,7 +3447,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>91.62</v>
       </c>
@@ -2829,7 +3458,7 @@
         <v>33.68</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>81.56</v>
       </c>
@@ -2840,7 +3469,7 @@
         <v>29.17</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>79.290000000000006</v>
       </c>
@@ -2851,7 +3480,7 @@
         <v>28.45</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>77.81</v>
       </c>
@@ -2862,7 +3491,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>105.71</v>
       </c>
@@ -2873,7 +3502,7 @@
         <v>36.869999999999997</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>120.2</v>
       </c>
@@ -2884,7 +3513,7 @@
         <v>40.39</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>94.12</v>
       </c>
@@ -2895,7 +3524,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>101.97</v>
       </c>
@@ -2906,7 +3535,7 @@
         <v>36.479999999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>106.5</v>
       </c>
@@ -2917,7 +3546,7 @@
         <v>38.89</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>102.3</v>
       </c>
@@ -2928,7 +3557,7 @@
         <v>36.380000000000003</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>126.38</v>
       </c>
@@ -2939,7 +3568,7 @@
         <v>44.03</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>116.66</v>
       </c>
@@ -2950,7 +3579,7 @@
         <v>40.64</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>120.37</v>
       </c>
@@ -2961,7 +3590,7 @@
         <v>41.62</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>121.28</v>
       </c>
@@ -2972,7 +3601,7 @@
         <v>43.42</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>104.38</v>
       </c>
@@ -2983,7 +3612,7 @@
         <v>37.65</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>103.56</v>
       </c>
@@ -2994,7 +3623,7 @@
         <v>36.28</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>81.92</v>
       </c>
@@ -3005,7 +3634,7 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>110.19</v>
       </c>
@@ -3016,7 +3645,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>82.5</v>
       </c>
@@ -3027,7 +3656,7 @@
         <v>30.62</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>75.62</v>
       </c>
@@ -3038,7 +3667,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>82.89</v>
       </c>
@@ -3049,7 +3678,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>101.13</v>
       </c>
@@ -3060,7 +3689,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>73.38</v>
       </c>
@@ -3071,7 +3700,7 @@
         <v>28.37</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>103.25</v>
       </c>
@@ -3082,7 +3711,7 @@
         <v>37.03</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>112.8</v>
       </c>
@@ -3093,7 +3722,7 @@
         <v>38.049999999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>83.8</v>
       </c>
@@ -3104,7 +3733,7 @@
         <v>30.37</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>115.48</v>
       </c>
@@ -3115,7 +3744,7 @@
         <v>40.64</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>94.27</v>
       </c>
@@ -3126,7 +3755,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>83.72</v>
       </c>
@@ -3137,7 +3766,7 @@
         <v>31.84</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>110.63</v>
       </c>
@@ -3148,7 +3777,7 @@
         <v>39.450000000000003</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>87</v>
       </c>
@@ -3159,7 +3788,7 @@
         <v>34.409999999999997</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>135.5</v>
       </c>
@@ -3170,7 +3799,7 @@
         <v>46.85</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>89.98</v>
       </c>
@@ -3181,7 +3810,7 @@
         <v>32.630000000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>115.13</v>
       </c>
@@ -3192,7 +3821,7 @@
         <v>40.43</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>73.42</v>
       </c>
@@ -3203,7 +3832,7 @@
         <v>27.62</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>107.31</v>
       </c>
@@ -3214,7 +3843,7 @@
         <v>38.450000000000003</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>88.51</v>
       </c>
@@ -3225,7 +3854,7 @@
         <v>32.81</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>111.1</v>
       </c>
@@ -3236,7 +3865,7 @@
         <v>39.42</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>84.78</v>
       </c>
@@ -3247,7 +3876,7 @@
         <v>30.89</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>92.79</v>
       </c>
@@ -3258,7 +3887,7 @@
         <v>36.090000000000003</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>65.349999999999994</v>
       </c>
@@ -3269,7 +3898,7 @@
         <v>26.82</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>81.849999999999994</v>
       </c>
@@ -3280,7 +3909,7 @@
         <v>31.59</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>112.38</v>
       </c>
@@ -3291,7 +3920,7 @@
         <v>39.369999999999997</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>87.95</v>
       </c>
@@ -3302,7 +3931,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>93.01</v>
       </c>
@@ -3313,7 +3942,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>112.7</v>
       </c>
@@ -3324,7 +3953,7 @@
         <v>40.69</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>128.07</v>
       </c>
@@ -3335,7 +3964,7 @@
         <v>43.82</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>90.67</v>
       </c>
@@ -3346,7 +3975,7 @@
         <v>32.479999999999997</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>140.02000000000001</v>
       </c>
@@ -3357,7 +3986,7 @@
         <v>46.43</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>113.82</v>
       </c>
@@ -3368,7 +3997,7 @@
         <v>40.369999999999997</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>90.34</v>
       </c>
@@ -3379,7 +4008,7 @@
         <v>31.39</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>100.13</v>
       </c>
@@ -3390,7 +4019,7 @@
         <v>35.19</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>107.96</v>
       </c>
@@ -3401,7 +4030,7 @@
         <v>39.229999999999997</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>73.05</v>
       </c>
@@ -3412,7 +4041,7 @@
         <v>27.79</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>99.21</v>
       </c>
@@ -3423,7 +4052,7 @@
         <v>37.49</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>102.72</v>
       </c>
@@ -3434,7 +4063,7 @@
         <v>34.69</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>91.35</v>
       </c>
@@ -3445,7 +4074,7 @@
         <v>33.28</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>129.59</v>
       </c>
@@ -3456,7 +4085,7 @@
         <v>45.98</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>100.9</v>
       </c>
@@ -3467,7 +4096,7 @@
         <v>35.950000000000003</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>103.96</v>
       </c>
@@ -3478,7 +4107,7 @@
         <v>39.19</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>98.45</v>
       </c>
@@ -3489,7 +4118,7 @@
         <v>34.020000000000003</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>96.6</v>
       </c>
@@ -3500,7 +4129,7 @@
         <v>35.21</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>143.97999999999999</v>
       </c>
@@ -3511,7 +4140,7 @@
         <v>49.67</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>70.900000000000006</v>
       </c>
@@ -3522,7 +4151,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>90.31</v>
       </c>
@@ -3533,7 +4162,7 @@
         <v>32.950000000000003</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>84.15</v>
       </c>
@@ -3544,7 +4173,7 @@
         <v>30.57</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>107.06</v>
       </c>
@@ -3555,7 +4184,7 @@
         <v>37.07</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>99.7</v>
       </c>
@@ -3566,7 +4195,7 @@
         <v>35.090000000000003</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>86.47</v>
       </c>
@@ -3577,7 +4206,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>102.73</v>
       </c>
@@ -3588,7 +4217,7 @@
         <v>37.130000000000003</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>83.76</v>
       </c>
@@ -3599,7 +4228,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>76.599999999999994</v>
       </c>
@@ -3610,7 +4239,7 @@
         <v>28.68</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>87.77</v>
       </c>
@@ -3621,7 +4250,7 @@
         <v>32.61</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>94.89</v>
       </c>
@@ -3632,7 +4261,7 @@
         <v>34.64</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>121.95</v>
       </c>
@@ -3643,7 +4272,7 @@
         <v>42.08</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>102.85</v>
       </c>
@@ -3654,7 +4283,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>120.69</v>
       </c>
@@ -3665,7 +4294,7 @@
         <v>43.44</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>111.17</v>
       </c>
@@ -3676,7 +4305,7 @@
         <v>40.79</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>76.88</v>
       </c>
@@ -3687,7 +4316,7 @@
         <v>28.71</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>97.83</v>
       </c>
@@ -3698,7 +4327,7 @@
         <v>34.54</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>116.44</v>
       </c>
@@ -3709,7 +4338,7 @@
         <v>41.49</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>92.53</v>
       </c>
@@ -3720,7 +4349,7 @@
         <v>32.67</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>84.63</v>
       </c>
@@ -3731,7 +4360,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>94.37</v>
       </c>
@@ -3742,7 +4371,7 @@
         <v>33.22</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>113.57</v>
       </c>
@@ -3753,7 +4382,7 @@
         <v>40.19</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>109.04</v>
       </c>
@@ -3764,7 +4393,7 @@
         <v>37.96</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>88.91</v>
       </c>
@@ -3775,7 +4404,7 @@
         <v>32.07</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>120.03</v>
       </c>
@@ -3786,7 +4415,7 @@
         <v>42.37</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>102.67</v>
       </c>
@@ -3797,7 +4426,7 @@
         <v>36.32</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>103.5</v>
       </c>
@@ -3808,7 +4437,7 @@
         <v>36.590000000000003</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>92.5</v>
       </c>
@@ -3819,7 +4448,7 @@
         <v>33.36</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>101.59</v>
       </c>
@@ -3830,7 +4459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>102.52</v>
       </c>
@@ -3841,7 +4470,7 @@
         <v>37.14</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>89.83</v>
       </c>
@@ -3852,7 +4481,7 @@
         <v>33.950000000000003</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>112.93</v>
       </c>
@@ -3863,7 +4492,7 @@
         <v>38.840000000000003</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>105.6</v>
       </c>
@@ -3874,7 +4503,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>97.05</v>
       </c>
@@ -3885,7 +4514,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>90.98</v>
       </c>
@@ -3896,7 +4525,7 @@
         <v>33.65</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>104.85</v>
       </c>
@@ -3907,7 +4536,7 @@
         <v>35.83</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>90.55</v>
       </c>
@@ -3918,7 +4547,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>128.63999999999999</v>
       </c>
@@ -3929,7 +4558,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>83.37</v>
       </c>
@@ -3940,7 +4569,7 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>89.32</v>
       </c>
@@ -3951,7 +4580,7 @@
         <v>33.18</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>107.61</v>
       </c>
@@ -3962,7 +4591,7 @@
         <v>36.51</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>94.03</v>
       </c>
@@ -3973,7 +4602,7 @@
         <v>33.17</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>117.97</v>
       </c>
@@ -3984,7 +4613,7 @@
         <v>40.57</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>122.6</v>
       </c>
@@ -3995,7 +4624,7 @@
         <v>43.01</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>133.69999999999999</v>
       </c>
@@ -4006,7 +4635,7 @@
         <v>46.32</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>62.2</v>
       </c>
@@ -4017,7 +4646,7 @@
         <v>25.34</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>80.680000000000007</v>
       </c>
@@ -4028,7 +4657,7 @@
         <v>30.82</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>90.08</v>
       </c>
@@ -4039,7 +4668,7 @@
         <v>33.61</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>88.85</v>
       </c>
@@ -4050,7 +4679,7 @@
         <v>31.83</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>105.05</v>
       </c>
@@ -4061,7 +4690,7 @@
         <v>37.24</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>103.31</v>
       </c>
@@ -4072,7 +4701,7 @@
         <v>35.619999999999997</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>115.07</v>
       </c>
@@ -4083,7 +4712,7 @@
         <v>40.950000000000003</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>101.34</v>
       </c>
@@ -4094,7 +4723,7 @@
         <v>36.020000000000003</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>119.39</v>
       </c>
@@ -4105,7 +4734,7 @@
         <v>41.38</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>109.05</v>
       </c>
@@ -4116,7 +4745,7 @@
         <v>38.47</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>105.75</v>
       </c>
@@ -4127,7 +4756,7 @@
         <v>36.94</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>105.31</v>
       </c>
@@ -4138,7 +4767,7 @@
         <v>37.619999999999997</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>104.11</v>
       </c>
@@ -4149,7 +4778,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>113.01</v>
       </c>
@@ -4160,7 +4789,7 @@
         <v>41.45</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>125.5</v>
       </c>
@@ -4171,7 +4800,7 @@
         <v>42.68</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>97.2</v>
       </c>
@@ -4182,7 +4811,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>86.58</v>
       </c>
@@ -4193,7 +4822,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>92.79</v>
       </c>
@@ -4204,7 +4833,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>98.16</v>
       </c>
@@ -4215,7 +4844,7 @@
         <v>35.369999999999997</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>103.99</v>
       </c>
@@ -4226,7 +4855,7 @@
         <v>37.51</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>102.67</v>
       </c>
@@ -4237,7 +4866,7 @@
         <v>36.880000000000003</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>108.23</v>
       </c>
@@ -4248,7 +4877,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>104.56</v>
       </c>
@@ -4259,7 +4888,7 @@
         <v>37.61</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>106.19</v>
       </c>
@@ -4270,7 +4899,7 @@
         <v>37.67</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>98.1</v>
       </c>
@@ -4281,7 +4910,7 @@
         <v>35.630000000000003</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>90.24</v>
       </c>
@@ -4292,7 +4921,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>85.26</v>
       </c>
@@ -4303,7 +4932,7 @@
         <v>32.74</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>60.51</v>
       </c>
@@ -4314,7 +4943,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>104.42</v>
       </c>
@@ -4325,7 +4954,7 @@
         <v>37.020000000000003</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>102.66</v>
       </c>
@@ -4336,7 +4965,7 @@
         <v>36.25</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>95.29</v>
       </c>
@@ -4347,7 +4976,7 @@
         <v>34.380000000000003</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>103.84</v>
       </c>
@@ -4358,7 +4987,7 @@
         <v>37.270000000000003</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>91.75</v>
       </c>
@@ -4369,7 +4998,7 @@
         <v>33.22</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>127.24</v>
       </c>
@@ -4380,7 +5009,7 @@
         <v>44.73</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>88.91</v>
       </c>
@@ -4391,7 +5020,7 @@
         <v>33.92</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>108.76</v>
       </c>
@@ -4402,7 +5031,7 @@
         <v>37.07</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>92.47</v>
       </c>
@@ -4413,7 +5042,7 @@
         <v>33.85</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>118.31</v>
       </c>
@@ -4424,7 +5053,7 @@
         <v>40.619999999999997</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>115.18</v>
       </c>
@@ -4435,7 +5064,7 @@
         <v>41.38</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>101.59</v>
       </c>
@@ -4446,7 +5075,7 @@
         <v>34.76</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>91.04</v>
       </c>
@@ -4457,7 +5086,7 @@
         <v>34.89</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>86.55</v>
       </c>
@@ -4468,7 +5097,7 @@
         <v>32.61</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>105.96</v>
       </c>
@@ -4479,7 +5108,7 @@
         <v>38.17</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>104.37</v>
       </c>
@@ -4490,7 +5119,7 @@
         <v>36.119999999999997</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>80.42</v>
       </c>
@@ -4501,7 +5130,7 @@
         <v>28.67</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>97.27</v>
       </c>
@@ -4512,7 +5141,7 @@
         <v>36.49</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>96.02</v>
       </c>
@@ -4523,7 +5152,7 @@
         <v>35.04</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>103.64</v>
       </c>
@@ -4534,7 +5163,7 @@
         <v>37.24</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>74.459999999999994</v>
       </c>
@@ -4545,7 +5174,7 @@
         <v>27.73</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>114.65</v>
       </c>
@@ -4556,7 +5185,7 @@
         <v>41.08</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>98.17</v>
       </c>
@@ -4567,7 +5196,7 @@
         <v>34.43</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>90</v>
       </c>
@@ -4578,7 +5207,7 @@
         <v>33.08</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>107.28</v>
       </c>
@@ -4589,7 +5218,7 @@
         <v>39.44</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>111.6</v>
       </c>
@@ -4600,7 +5229,7 @@
         <v>39.86</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>109.83</v>
       </c>
@@ -4611,7 +5240,7 @@
         <v>38.17</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>93.14</v>
       </c>
@@ -4622,7 +5251,7 @@
         <v>32.49</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>130.34</v>
       </c>
@@ -4633,7 +5262,7 @@
         <v>45.61</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>87.08</v>
       </c>
@@ -4644,7 +5273,7 @@
         <v>31.67</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>91.38</v>
       </c>
@@ -4655,7 +5284,7 @@
         <v>31.89</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>109.89</v>
       </c>
@@ -4666,7 +5295,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>123.29</v>
       </c>
@@ -4677,7 +5306,7 @@
         <v>43.38</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>94.14</v>
       </c>
@@ -4688,7 +5317,7 @@
         <v>33.18</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>90.12</v>
       </c>
@@ -4699,7 +5328,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>100.3</v>
       </c>
@@ -4710,7 +5339,7 @@
         <v>36.24</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>92.22</v>
       </c>
@@ -4721,7 +5350,7 @@
         <v>32.229999999999997</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>86.52</v>
       </c>
@@ -4732,7 +5361,7 @@
         <v>32.119999999999997</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>110.63</v>
       </c>
@@ -4743,7 +5372,7 @@
         <v>38.71</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>112.22</v>
       </c>
@@ -4754,7 +5383,7 @@
         <v>40.25</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>99.11</v>
       </c>
@@ -4765,7 +5394,7 @@
         <v>35.950000000000003</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>84.5</v>
       </c>
@@ -4776,7 +5405,7 @@
         <v>32.520000000000003</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>100.67</v>
       </c>
@@ -4787,7 +5416,7 @@
         <v>36.15</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>115.31</v>
       </c>
@@ -4798,7 +5427,7 @@
         <v>40.61</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>60.32</v>
       </c>
@@ -4809,7 +5438,7 @@
         <v>24.36</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>122.39</v>
       </c>
@@ -4820,7 +5449,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>65.989999999999995</v>
       </c>
@@ -4831,7 +5460,7 @@
         <v>25.79</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>98.62</v>
       </c>
@@ -4842,7 +5471,7 @@
         <v>36.76</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>108.3</v>
       </c>
@@ -4853,7 +5482,7 @@
         <v>38.619999999999997</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>104.22</v>
       </c>
@@ -4864,7 +5493,7 @@
         <v>38.67</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>75.94</v>
       </c>
@@ -4875,7 +5504,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>67.53</v>
       </c>
@@ -4886,7 +5515,7 @@
         <v>24.97</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>107.14</v>
       </c>
@@ -4897,7 +5526,7 @@
         <v>39.68</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>102.22</v>
       </c>
@@ -4908,7 +5537,7 @@
         <v>37.549999999999997</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>100.33</v>
       </c>
@@ -4919,7 +5548,7 @@
         <v>35.61</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>100.5</v>
       </c>
@@ -4930,7 +5559,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>91.48</v>
       </c>
@@ -4941,7 +5570,7 @@
         <v>34.92</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>126.33</v>
       </c>
@@ -4952,7 +5581,7 @@
         <v>42.85</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>123.89</v>
       </c>
@@ -4963,7 +5592,7 @@
         <v>42.15</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>84.07</v>
       </c>
@@ -4974,7 +5603,7 @@
         <v>32.32</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>91.05</v>
       </c>
@@ -4985,7 +5614,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>70.599999999999994</v>
       </c>
@@ -4996,7 +5625,7 @@
         <v>25.72</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>98.74</v>
       </c>
@@ -5007,7 +5636,7 @@
         <v>34.56</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>77.5</v>
       </c>
@@ -5018,7 +5647,7 @@
         <v>28.72</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>88</v>
       </c>
@@ -5029,7 +5658,7 @@
         <v>31.79</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>86.31</v>
       </c>
@@ -5040,7 +5669,7 @@
         <v>30.86</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>113.27</v>
       </c>
@@ -5051,7 +5680,7 @@
         <v>40.53</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>111.43</v>
       </c>
@@ -5062,7 +5691,7 @@
         <v>39.479999999999997</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>90.71</v>
       </c>
@@ -5073,7 +5702,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>106.75</v>
       </c>
@@ -5084,7 +5713,7 @@
         <v>37.74</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>97.22</v>
       </c>
@@ -5095,7 +5724,7 @@
         <v>34.979999999999997</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>98.28</v>
       </c>
@@ -5106,7 +5735,7 @@
         <v>36.14</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>101.09</v>
       </c>
@@ -5117,7 +5746,7 @@
         <v>35.67</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>78.42</v>
       </c>
@@ -5128,7 +5757,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>82.93</v>
       </c>
@@ -5139,7 +5768,7 @@
         <v>31.49</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>108.88</v>
       </c>
@@ -5150,7 +5779,7 @@
         <v>40.36</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>104.73</v>
       </c>
@@ -5161,7 +5790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>96.76</v>
       </c>
@@ -5172,7 +5801,7 @@
         <v>34.450000000000003</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>100.96</v>
       </c>
@@ -5183,7 +5812,7 @@
         <v>36.99</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>98.16</v>
       </c>
@@ -5194,7 +5823,7 @@
         <v>35.22</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>77.48</v>
       </c>
@@ -5205,7 +5834,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>84.95</v>
       </c>
@@ -5216,7 +5845,7 @@
         <v>31.01</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>87.13</v>
       </c>
@@ -5227,7 +5856,7 @@
         <v>31.95</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>91.96</v>
       </c>
@@ -5238,7 +5867,7 @@
         <v>33.64</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>78.06</v>
       </c>
@@ -5249,7 +5878,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>90.21</v>
       </c>
@@ -5260,7 +5889,7 @@
         <v>32.880000000000003</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>122.28</v>
       </c>
@@ -5271,7 +5900,7 @@
         <v>42.89</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>122.2</v>
       </c>
@@ -5282,7 +5911,7 @@
         <v>43.61</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>97.35</v>
       </c>
@@ -5293,7 +5922,7 @@
         <v>35.01</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>110.21</v>
       </c>
@@ -5304,7 +5933,7 @@
         <v>39.520000000000003</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>94.49</v>
       </c>
@@ -5313,6 +5942,74 @@
       </c>
       <c r="C401">
         <v>32.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8E4705-3589-4E17-B053-280160A820E2}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.3208215006153292</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15.645336832567466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.29214812985404054</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.0338655815108995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.1422361149250557</v>
       </c>
     </row>
   </sheetData>
